--- a/inst/extdata/example.xlsx
+++ b/inst/extdata/example.xlsx
@@ -1,24 +1,197 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guill\OneDrive\Bureau\R\banffIT\inst\extdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA33E28-2339-4FD6-90E6-2A83DA20DED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="54">
+  <si>
+    <t>patient_id</t>
+  </si>
+  <si>
+    <t>biopsy_id</t>
+  </si>
+  <si>
+    <t>sc_date_bx</t>
+  </si>
+  <si>
+    <t>date_tx</t>
+  </si>
+  <si>
+    <t>type_bx</t>
+  </si>
+  <si>
+    <t>adequacy</t>
+  </si>
+  <si>
+    <t>fixation_ff</t>
+  </si>
+  <si>
+    <t>fixation_paraffin</t>
+  </si>
+  <si>
+    <t>fixation_elec</t>
+  </si>
+  <si>
+    <t>fixation_rna</t>
+  </si>
+  <si>
+    <t>microscopy</t>
+  </si>
+  <si>
+    <t>c4d_if</t>
+  </si>
+  <si>
+    <t>c4d_ihc</t>
+  </si>
+  <si>
+    <t>dsa</t>
+  </si>
+  <si>
+    <t>hist_dsa</t>
+  </si>
+  <si>
+    <t>i_score</t>
+  </si>
+  <si>
+    <t>t_score</t>
+  </si>
+  <si>
+    <t>v_score</t>
+  </si>
+  <si>
+    <t>g_score</t>
+  </si>
+  <si>
+    <t>ptc_score</t>
+  </si>
+  <si>
+    <t>ti_score</t>
+  </si>
+  <si>
+    <t>cg_score</t>
+  </si>
+  <si>
+    <t>mm_score</t>
+  </si>
+  <si>
+    <t>cv_score</t>
+  </si>
+  <si>
+    <t>ci_score</t>
+  </si>
+  <si>
+    <t>ct_score</t>
+  </si>
+  <si>
+    <t>ah_score</t>
+  </si>
+  <si>
+    <t>glomeruli</t>
+  </si>
+  <si>
+    <t>arteries</t>
+  </si>
+  <si>
+    <t>bk</t>
+  </si>
+  <si>
+    <t>gs</t>
+  </si>
+  <si>
+    <t>i_ifta_score</t>
+  </si>
+  <si>
+    <t>atma</t>
+  </si>
+  <si>
+    <t>ctma</t>
+  </si>
+  <si>
+    <t>atn</t>
+  </si>
+  <si>
+    <t>agn</t>
+  </si>
+  <si>
+    <t>cgn</t>
+  </si>
+  <si>
+    <t>infec</t>
+  </si>
+  <si>
+    <t>cni</t>
+  </si>
+  <si>
+    <t>ain</t>
+  </si>
+  <si>
+    <t>ptld</t>
+  </si>
+  <si>
+    <t>sptcbmml</t>
+  </si>
+  <si>
+    <t>leuscint</t>
+  </si>
+  <si>
+    <t>monofibneoint</t>
+  </si>
+  <si>
+    <t>newaif</t>
+  </si>
+  <si>
+    <t>othi_ifta</t>
+  </si>
+  <si>
+    <t>genetx</t>
+  </si>
+  <si>
+    <t>hist_aamr</t>
+  </si>
+  <si>
+    <t>hist_camr</t>
+  </si>
+  <si>
+    <t>hist_tcmr</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1a</t>
+  </si>
+  <si>
+    <t>center</t>
+  </si>
+  <si>
+    <t>center_test</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,13 +240,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -111,7 +292,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -145,6 +326,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -179,9 +361,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -354,282 +537,179 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="20.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="20.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>patient_id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>centre</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>biopsy_id</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>sc_date_bx</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>date_tx</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>type_bx</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>adequacy</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>fixation_ff</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>fixation_paraffin</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>fixation_elec</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>fixation_rna</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>microscopy</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>c4d_if</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>c4d_ihc</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>dsa</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>hist_dsa</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>i_score</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>t_score</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>v_score</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>g_score</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>ptc_score</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>ti_score</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>cg_score</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>mm_score</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>cv_score</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>ci_score</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>ct_score</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>ah_score</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>glomeruli</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>arteries</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>bk</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>gs</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>i_ifta_score</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>atma</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>ctma</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>atn</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>agn</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>cgn</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>infec</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>cni</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>ain</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>ptld</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>sptcbmml</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>leuscint</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>monofibneoint</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>newaif</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>othi_ifta</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>genetx</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>hist_aamr</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>hist_camr</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>hist_tcmr</t>
-        </is>
+    <row r="1" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>100</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>centre_test</t>
-        </is>
+      <c r="B2" t="s">
+        <v>53</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -691,10 +771,8 @@
       <c r="V2">
         <v>0</v>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="W2" t="s">
+        <v>50</v>
       </c>
       <c r="X2">
         <v>1</v>
@@ -775,14 +853,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>100</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>centre_test</t>
-        </is>
+      <c r="B3" t="s">
+        <v>53</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -844,10 +920,8 @@
       <c r="V3">
         <v>0</v>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="W3" t="s">
+        <v>50</v>
       </c>
       <c r="X3">
         <v>2</v>
@@ -928,14 +1002,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>101</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>centre_test</t>
-        </is>
+      <c r="B4" t="s">
+        <v>53</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -997,10 +1069,8 @@
       <c r="V4">
         <v>0</v>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="W4" t="s">
+        <v>50</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -1081,14 +1151,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>101</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>centre_test</t>
-        </is>
+      <c r="B5" t="s">
+        <v>53</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1150,10 +1218,8 @@
       <c r="V5">
         <v>3</v>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="W5" t="s">
+        <v>50</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -1234,14 +1300,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>102</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>centre_test</t>
-        </is>
+      <c r="B6" t="s">
+        <v>53</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1303,10 +1367,8 @@
       <c r="V6">
         <v>0</v>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="W6" t="s">
+        <v>50</v>
       </c>
       <c r="X6">
         <v>1</v>
@@ -1387,14 +1449,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>102</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>centre_test</t>
-        </is>
+      <c r="B7" t="s">
+        <v>53</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1456,10 +1516,8 @@
       <c r="V7">
         <v>0</v>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="W7" t="s">
+        <v>50</v>
       </c>
       <c r="X7">
         <v>1</v>
@@ -1540,14 +1598,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>102</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>centre_test</t>
-        </is>
+      <c r="B8" t="s">
+        <v>53</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1609,10 +1665,8 @@
       <c r="V8">
         <v>3</v>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="W8" t="s">
+        <v>50</v>
       </c>
       <c r="X8">
         <v>1</v>
@@ -1693,14 +1747,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>103</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>centre_test</t>
-        </is>
+      <c r="B9" t="s">
+        <v>53</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1762,10 +1814,8 @@
       <c r="V9">
         <v>0</v>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="W9" t="s">
+        <v>50</v>
       </c>
       <c r="X9">
         <v>1</v>
@@ -1846,14 +1896,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>104</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>centre_test</t>
-        </is>
+      <c r="B10" t="s">
+        <v>53</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1915,10 +1963,8 @@
       <c r="V10">
         <v>0</v>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="W10" t="s">
+        <v>50</v>
       </c>
       <c r="X10">
         <v>0</v>
@@ -1999,14 +2045,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>104</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>centre_test</t>
-        </is>
+      <c r="B11" t="s">
+        <v>53</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -2068,10 +2112,8 @@
       <c r="V11">
         <v>1</v>
       </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="W11" t="s">
+        <v>50</v>
       </c>
       <c r="X11">
         <v>2</v>
@@ -2152,14 +2194,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>104</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>centre_test</t>
-        </is>
+      <c r="B12" t="s">
+        <v>53</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -2221,10 +2261,8 @@
       <c r="V12">
         <v>1</v>
       </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="W12" t="s">
+        <v>50</v>
       </c>
       <c r="X12">
         <v>1</v>
@@ -2305,14 +2343,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>105</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>centre_test</t>
-        </is>
+      <c r="B13" t="s">
+        <v>53</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -2374,10 +2410,8 @@
       <c r="V13">
         <v>3</v>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="W13" t="s">
+        <v>50</v>
       </c>
       <c r="X13">
         <v>1</v>
@@ -2458,14 +2492,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>105</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>centre_test</t>
-        </is>
+      <c r="B14" t="s">
+        <v>53</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -2527,10 +2559,8 @@
       <c r="V14">
         <v>1</v>
       </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="W14" t="s">
+        <v>50</v>
       </c>
       <c r="X14">
         <v>1</v>
@@ -2611,14 +2641,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>106</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>centre_test</t>
-        </is>
+      <c r="B15" t="s">
+        <v>53</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -2680,10 +2708,8 @@
       <c r="V15">
         <v>3</v>
       </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="W15" t="s">
+        <v>50</v>
       </c>
       <c r="X15">
         <v>0</v>
@@ -2764,14 +2790,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>106</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>centre_test</t>
-        </is>
+      <c r="B16" t="s">
+        <v>53</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -2833,10 +2857,8 @@
       <c r="V16">
         <v>1</v>
       </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="W16" t="s">
+        <v>50</v>
       </c>
       <c r="X16">
         <v>0</v>
@@ -2917,14 +2939,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>106</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>centre_test</t>
-        </is>
+      <c r="B17" t="s">
+        <v>53</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -2986,10 +3006,8 @@
       <c r="V17">
         <v>1</v>
       </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="W17" t="s">
+        <v>50</v>
       </c>
       <c r="X17">
         <v>0</v>
@@ -3070,14 +3088,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>107</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>centre_test</t>
-        </is>
+      <c r="B18" t="s">
+        <v>53</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -3139,10 +3155,8 @@
       <c r="V18">
         <v>1</v>
       </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="W18" t="s">
+        <v>50</v>
       </c>
       <c r="X18">
         <v>0</v>
@@ -3223,14 +3237,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>107</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>centre_test</t>
-        </is>
+      <c r="B19" t="s">
+        <v>53</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -3292,10 +3304,8 @@
       <c r="V19">
         <v>0</v>
       </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="W19" t="s">
+        <v>50</v>
       </c>
       <c r="X19">
         <v>0</v>
@@ -3376,14 +3386,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>108</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>centre_test</t>
-        </is>
+      <c r="B20" t="s">
+        <v>53</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -3445,10 +3453,8 @@
       <c r="V20">
         <v>1</v>
       </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="W20" t="s">
+        <v>50</v>
       </c>
       <c r="X20">
         <v>0</v>
@@ -3529,14 +3535,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>108</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>centre_test</t>
-        </is>
+      <c r="B21" t="s">
+        <v>53</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -3598,10 +3602,8 @@
       <c r="V21">
         <v>1</v>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>1a</t>
-        </is>
+      <c r="W21" t="s">
+        <v>51</v>
       </c>
       <c r="X21">
         <v>0</v>
@@ -3682,14 +3684,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>109</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>centre_test</t>
-        </is>
+      <c r="B22" t="s">
+        <v>53</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -3751,10 +3751,8 @@
       <c r="V22">
         <v>3</v>
       </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="W22" t="s">
+        <v>50</v>
       </c>
       <c r="X22">
         <v>1</v>
@@ -3835,14 +3833,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>109</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>centre_test</t>
-        </is>
+      <c r="B23" t="s">
+        <v>53</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -3904,10 +3900,8 @@
       <c r="V23">
         <v>2</v>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>1a</t>
-        </is>
+      <c r="W23" t="s">
+        <v>51</v>
       </c>
       <c r="X23">
         <v>1</v>
@@ -3988,14 +3982,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>110</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>centre_test</t>
-        </is>
+      <c r="B24" t="s">
+        <v>53</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -4057,10 +4049,8 @@
       <c r="V24">
         <v>2</v>
       </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="W24" t="s">
+        <v>50</v>
       </c>
       <c r="X24">
         <v>0</v>
@@ -4141,14 +4131,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>110</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>centre_test</t>
-        </is>
+      <c r="B25" t="s">
+        <v>53</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -4210,10 +4198,8 @@
       <c r="V25">
         <v>1</v>
       </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="W25" t="s">
+        <v>50</v>
       </c>
       <c r="X25">
         <v>0</v>
@@ -4294,14 +4280,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>111</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>centre_test</t>
-        </is>
+      <c r="B26" t="s">
+        <v>53</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -4363,10 +4347,8 @@
       <c r="V26">
         <v>0</v>
       </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="W26" t="s">
+        <v>50</v>
       </c>
       <c r="X26">
         <v>0</v>
@@ -4447,14 +4429,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>111</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>centre_test</t>
-        </is>
+      <c r="B27" t="s">
+        <v>53</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -4516,10 +4496,8 @@
       <c r="V27">
         <v>0</v>
       </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="W27" t="s">
+        <v>50</v>
       </c>
       <c r="X27">
         <v>0</v>
@@ -4600,14 +4578,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>112</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>centre_test</t>
-        </is>
+      <c r="B28" t="s">
+        <v>53</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -4669,10 +4645,8 @@
       <c r="V28">
         <v>1</v>
       </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>1a</t>
-        </is>
+      <c r="W28" t="s">
+        <v>51</v>
       </c>
       <c r="X28">
         <v>2</v>
@@ -4753,14 +4727,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>112</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>centre_test</t>
-        </is>
+      <c r="B29" t="s">
+        <v>53</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -4822,10 +4794,8 @@
       <c r="V29">
         <v>1</v>
       </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>1a</t>
-        </is>
+      <c r="W29" t="s">
+        <v>51</v>
       </c>
       <c r="X29">
         <v>2</v>
@@ -4906,14 +4876,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>112</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>centre_test</t>
-        </is>
+      <c r="B30" t="s">
+        <v>53</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -4975,10 +4943,8 @@
       <c r="V30">
         <v>0</v>
       </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>1a</t>
-        </is>
+      <c r="W30" t="s">
+        <v>51</v>
       </c>
       <c r="X30">
         <v>3</v>
@@ -5059,14 +5025,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>112</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>centre_test</t>
-        </is>
+      <c r="B31" t="s">
+        <v>53</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -5128,10 +5092,8 @@
       <c r="V31">
         <v>1</v>
       </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>1a</t>
-        </is>
+      <c r="W31" t="s">
+        <v>51</v>
       </c>
       <c r="X31">
         <v>3</v>
@@ -5212,14 +5174,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>113</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>centre_test</t>
-        </is>
+      <c r="B32" t="s">
+        <v>53</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -5281,10 +5241,8 @@
       <c r="V32">
         <v>0</v>
       </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>1a</t>
-        </is>
+      <c r="W32" t="s">
+        <v>51</v>
       </c>
       <c r="X32">
         <v>0</v>
@@ -5365,14 +5323,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>113</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>centre_test</t>
-        </is>
+      <c r="B33" t="s">
+        <v>53</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -5434,10 +5390,8 @@
       <c r="V33">
         <v>0</v>
       </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>1a</t>
-        </is>
+      <c r="W33" t="s">
+        <v>51</v>
       </c>
       <c r="X33">
         <v>0</v>
@@ -5518,14 +5472,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>114</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>centre_test</t>
-        </is>
+      <c r="B34" t="s">
+        <v>53</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -5584,10 +5536,8 @@
       <c r="V34">
         <v>1</v>
       </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="W34" t="s">
+        <v>50</v>
       </c>
       <c r="X34">
         <v>0</v>
@@ -5668,14 +5618,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>114</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>centre_test</t>
-        </is>
+      <c r="B35" t="s">
+        <v>53</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -5734,10 +5682,8 @@
       <c r="V35">
         <v>0</v>
       </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="W35" t="s">
+        <v>50</v>
       </c>
       <c r="X35">
         <v>0</v>
